--- a/Practica 2/Datos vias.xlsx
+++ b/Practica 2/Datos vias.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="71">
   <si>
     <t>KM</t>
   </si>
@@ -240,7 +240,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -273,20 +272,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -503,7 +495,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="9.14"/>
+    <col customWidth="1" min="1" max="14" width="9.14"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -675,7 +667,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1352,27 +1344,28 @@
         <v>41</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1">
-        <v>122.0</v>
+        <v>505.0</v>
       </c>
       <c r="D60" s="1">
-        <v>120.0</v>
-      </c>
+        <v>622.0</v>
+      </c>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1">
-        <v>505.0</v>
+        <v>122.0</v>
       </c>
       <c r="D61" s="1">
-        <v>622.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
@@ -1380,27 +1373,27 @@
         <v>40</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C62" s="1">
-        <v>122.0</v>
+        <v>259.0</v>
       </c>
       <c r="D62" s="1">
-        <v>129.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="1">
-        <v>259.0</v>
+        <v>197.0</v>
       </c>
       <c r="D63" s="1">
-        <v>280.0</v>
+        <v>248.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
@@ -1408,72 +1401,73 @@
         <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" s="1">
-        <v>197.0</v>
+        <v>239.0</v>
       </c>
       <c r="D64" s="1">
-        <v>248.0</v>
+        <f>4*60+15</f>
+        <v>255</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="1">
-        <v>239.0</v>
+        <v>131.0</v>
       </c>
       <c r="D65" s="1">
-        <f>4*60+15</f>
-        <v>255</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C66" s="1">
-        <v>131.0</v>
+        <v>633.0</v>
       </c>
       <c r="D66" s="1">
-        <v>175.0</v>
+        <f>12*60+6</f>
+        <v>726</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C67" s="1">
-        <v>633.0</v>
+        <v>388.0</v>
       </c>
       <c r="D67" s="1">
-        <f>12*60+6</f>
-        <v>726</v>
+        <f>7*60+26</f>
+        <v>446</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="1">
-        <v>388.0</v>
+        <v>308.0</v>
       </c>
       <c r="D68" s="1">
-        <f>7*60+26</f>
-        <v>446</v>
+        <f>5*60+42</f>
+        <v>342</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -1481,42 +1475,42 @@
         <v>44</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C69" s="1">
-        <v>308.0</v>
+        <v>104.0</v>
       </c>
       <c r="D69" s="1">
-        <f>5*60+42</f>
-        <v>342</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" s="1">
-        <v>104.0</v>
+        <v>172.0</v>
       </c>
       <c r="D70" s="1">
-        <v>126.0</v>
+        <v>173.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C71" s="1">
-        <v>172.0</v>
+        <v>159.0</v>
       </c>
       <c r="D71" s="1">
-        <v>173.0</v>
+        <f>60*3+25</f>
+        <v>205</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -1524,58 +1518,58 @@
         <v>45</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C72" s="1">
-        <v>159.0</v>
+        <v>547.0</v>
       </c>
       <c r="D72" s="1">
-        <f>60*3+25</f>
-        <v>205</v>
+        <f>11*60+4</f>
+        <v>664</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C73" s="1">
-        <v>547.0</v>
+        <v>201.0</v>
       </c>
       <c r="D73" s="1">
-        <f>11*60+4</f>
-        <v>664</v>
+        <f>5*60+28</f>
+        <v>328</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C74" s="1">
-        <v>201.0</v>
+        <v>206.0</v>
       </c>
       <c r="D74" s="1">
-        <f>5*60+28</f>
-        <v>328</v>
+        <v>241.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C75" s="1">
-        <v>206.0</v>
+        <v>444.0</v>
       </c>
       <c r="D75" s="1">
-        <v>241.0</v>
+        <f>7*60+59</f>
+        <v>479</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -1583,14 +1577,14 @@
         <v>48</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" s="1">
-        <v>444.0</v>
+        <v>51.0</v>
       </c>
       <c r="D76" s="1">
-        <f>7*60+59</f>
-        <v>479</v>
+        <f>60+32</f>
+        <v>92</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -1598,74 +1592,74 @@
         <v>48</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C77" s="1">
-        <v>51.0</v>
+        <v>545.0</v>
       </c>
       <c r="D77" s="1">
-        <f>60+32</f>
-        <v>92</v>
+        <f>9*60+27</f>
+        <v>567</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C78" s="1">
-        <v>545.0</v>
+        <v>372.0</v>
       </c>
       <c r="D78" s="1">
-        <f>9*60+27</f>
-        <v>567</v>
+        <f>5*60+21</f>
+        <v>321</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C79" s="1">
-        <v>372.0</v>
+        <v>807.0</v>
       </c>
       <c r="D79" s="1">
-        <f>5*60+21</f>
-        <v>321</v>
+        <f>11*60+20</f>
+        <v>680</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C80" s="1">
-        <v>807.0</v>
+        <v>331.0</v>
       </c>
       <c r="D80" s="1">
-        <f>11*60+20</f>
-        <v>680</v>
+        <f>6*60+12</f>
+        <v>372</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C81" s="1">
-        <v>331.0</v>
+        <v>427.0</v>
       </c>
       <c r="D81" s="1">
-        <f>6*60+12</f>
-        <v>372</v>
+        <f>7*60+32</f>
+        <v>452</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -1673,148 +1667,148 @@
         <v>53</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C82" s="1">
+        <v>155.0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>178.0</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C82" s="1">
-        <v>427.0</v>
-      </c>
-      <c r="D82" s="1">
-        <f>7*60+32</f>
-        <v>452</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C83" s="1">
-        <v>155.0</v>
+        <v>281.0</v>
       </c>
       <c r="D83" s="1">
-        <v>178.0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="1">
-        <v>281.0</v>
-      </c>
-      <c r="D84" s="1">
         <f>4*60+35</f>
         <v>275</v>
       </c>
     </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1473.0</v>
+      </c>
+      <c r="D84" s="1">
+        <f>23*60+54</f>
+        <v>1434</v>
+      </c>
+    </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C85" s="1">
-        <v>1473.0</v>
+        <v>560.0</v>
       </c>
       <c r="D85" s="1">
-        <f>23*60+54</f>
-        <v>1434</v>
+        <f>10*60+12</f>
+        <v>612</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C86" s="1">
-        <v>560.0</v>
+        <v>571.0</v>
       </c>
       <c r="D86" s="1">
-        <f>10*60+12</f>
-        <v>612</v>
+        <f>12*60+24</f>
+        <v>744</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C87" s="1">
-        <v>571.0</v>
+        <v>301.0</v>
       </c>
       <c r="D87" s="1">
-        <f>12*60+24</f>
-        <v>744</v>
+        <f>4*60+51</f>
+        <v>291</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C88" s="1">
-        <v>301.0</v>
+        <v>798.0</v>
       </c>
       <c r="D88" s="1">
-        <f>4*60+51</f>
-        <v>291</v>
+        <f>15*60+53</f>
+        <v>953</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C89" s="1">
-        <v>798.0</v>
+        <v>499.0</v>
       </c>
       <c r="D89" s="1">
-        <f>15*60+53</f>
-        <v>953</v>
+        <f>9*60+50</f>
+        <v>590</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C90" s="1">
-        <v>499.0</v>
+        <v>707.0</v>
       </c>
       <c r="D90" s="1">
-        <f>9*60+50</f>
-        <v>590</v>
+        <f>12*60+44</f>
+        <v>764</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C91" s="1">
-        <v>707.0</v>
+        <v>1143.0</v>
       </c>
       <c r="D91" s="1">
-        <f>12*60+44</f>
-        <v>764</v>
+        <f>14*60+24</f>
+        <v>864</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -1822,164 +1816,164 @@
         <v>60</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C92" s="1">
-        <v>1143.0</v>
+        <v>559.0</v>
       </c>
       <c r="D92" s="1">
-        <f>14*60+24</f>
-        <v>864</v>
-      </c>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C93" s="1">
-        <v>559.0</v>
-      </c>
-      <c r="D93" s="1">
         <f>10*60+5</f>
         <v>605</v>
       </c>
     </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2012.0</v>
+      </c>
+      <c r="D93" s="1">
+        <f>26*60</f>
+        <v>1560</v>
+      </c>
+    </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C94" s="1">
-        <v>2012.0</v>
+        <v>1336.0</v>
       </c>
       <c r="D94" s="1">
-        <f>26*60</f>
-        <v>1560</v>
+        <f>14*60+52</f>
+        <v>892</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C95" s="1">
-        <v>1336.0</v>
+        <v>1041.0</v>
       </c>
       <c r="D95" s="1">
-        <f>14*60+52</f>
-        <v>892</v>
+        <f>13*60+33</f>
+        <v>813</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C96" s="1">
-        <v>1041.0</v>
+        <v>2133.0</v>
       </c>
       <c r="D96" s="1">
-        <f>13*60+33</f>
-        <v>813</v>
+        <f>33*60</f>
+        <v>1980</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C97" s="1">
-        <v>2133.0</v>
+        <v>1241.0</v>
       </c>
       <c r="D97" s="1">
-        <f>33*60</f>
-        <v>1980</v>
+        <f>16*60+5</f>
+        <v>965</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C98" s="1">
-        <v>1241.0</v>
+        <v>1332.0</v>
       </c>
       <c r="D98" s="1">
-        <f>16*60+5</f>
-        <v>965</v>
+        <f>16*60+33</f>
+        <v>993</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C99" s="1">
-        <v>1332.0</v>
+        <v>750.0</v>
       </c>
       <c r="D99" s="1">
-        <f>16*60+33</f>
-        <v>993</v>
+        <f>8*60+59</f>
+        <v>539</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C100" s="1">
-        <v>750.0</v>
+        <v>238.0</v>
       </c>
       <c r="D100" s="1">
-        <f>8*60+59</f>
-        <v>539</v>
+        <f>4*60+48</f>
+        <v>288</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C101" s="1">
-        <v>238.0</v>
+        <v>806.0</v>
       </c>
       <c r="D101" s="1">
-        <f>4*60+48</f>
-        <v>288</v>
+        <f>10*60+9</f>
+        <v>609</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C102" s="1">
-        <v>806.0</v>
+        <v>1237.0</v>
       </c>
       <c r="D102" s="1">
-        <f>10*60+9</f>
-        <v>609</v>
+        <f>17*60+23</f>
+        <v>1043</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
@@ -1987,44 +1981,44 @@
         <v>65</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C103" s="1">
-        <v>1237.0</v>
+        <v>1345.0</v>
       </c>
       <c r="D103" s="1">
-        <f>17*60+23</f>
-        <v>1043</v>
+        <f>17*60+31</f>
+        <v>1051</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C104" s="1">
-        <v>1345.0</v>
+        <v>1137.0</v>
       </c>
       <c r="D104" s="1">
-        <f>17*60+31</f>
-        <v>1051</v>
+        <f>14*60+8</f>
+        <v>848</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C105" s="1">
-        <v>1137.0</v>
+        <v>2903.0</v>
       </c>
       <c r="D105" s="1">
-        <f>14*60+8</f>
-        <v>848</v>
+        <f>42*60</f>
+        <v>2520</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
@@ -2032,60 +2026,35 @@
         <v>62</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C106" s="1">
-        <v>2903.0</v>
+        <v>3104.0</v>
       </c>
       <c r="D106" s="1">
-        <f>42*60</f>
-        <v>2520</v>
+        <f>45*60</f>
+        <v>2700</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C107" s="1">
-        <v>3104.0</v>
+        <v>1005.0</v>
       </c>
       <c r="D107" s="1">
-        <f>45*60</f>
-        <v>2700</v>
-      </c>
-      <c r="I107" s="1" t="str">
-        <f t="shared" ref="I107:I108" si="1">B109</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1005.0</v>
-      </c>
-      <c r="D108" s="1">
         <f>12*60+22</f>
         <v>742</v>
       </c>
-      <c r="I108" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="G109" s="1" t="str">
-        <f>A109</f>
-        <v/>
-      </c>
-    </row>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1"/>
     <row r="110" ht="15.75" customHeight="1"/>
     <row r="111" ht="15.75" customHeight="1"/>
     <row r="112" ht="15.75" customHeight="1"/>
@@ -2976,7 +2945,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
